--- a/Data/Input/PlacedStudents.xlsx
+++ b/Data/Input/PlacedStudents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UiPath\TnPAutomation\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032B0F2-0A21-4553-A166-38243CFC58A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4288F3-1C8E-491D-B00F-4A7A77257BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="3108" windowWidth="19572" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="2040" windowWidth="19572" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placed Students" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,11 +361,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>21810714</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
